--- a/data/monitorsEU.xlsx
+++ b/data/monitorsEU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3A52F-8C4B-8443-BE4C-DB49D3366C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4C1A8-8A4A-2D43-A93E-D9E9640F9685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="226">
   <si>
     <t>name</t>
   </si>
@@ -127,21 +127,12 @@
     <t>IPS MiniLED 1152 zones</t>
   </si>
   <si>
-    <t>Innocn 32M2V</t>
-  </si>
-  <si>
     <t>144hz</t>
   </si>
   <si>
     <t>32"</t>
   </si>
   <si>
-    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-32m2v/</t>
-  </si>
-  <si>
-    <t>Snowman,https://www.youtube.com/watch?v=AHJ0yUUuPkE</t>
-  </si>
-  <si>
     <t>Dell S2522HG</t>
   </si>
   <si>
@@ -556,12 +547,6 @@
     <t>Dell AW3423DW</t>
   </si>
   <si>
-    <t>OSD lock ups sometimes + minor VRR+HDR flickering + might have to wait for restock</t>
-  </si>
-  <si>
-    <t>VRR+HDR flickering + might have to wait for restock</t>
-  </si>
-  <si>
     <t>Broken HDR + 3 year burn in warranty + glossy</t>
   </si>
   <si>
@@ -586,9 +571,6 @@
     <t>techless,https://www.youtube.com/watch?v=WE5y_8Wx_sI</t>
   </si>
   <si>
-    <t>Nubia RedMagic GM001J</t>
-  </si>
-  <si>
     <t>Iiyama G(B)2470HSU</t>
   </si>
   <si>
@@ -685,9 +667,6 @@
     <t>Dell S2721DGFA</t>
   </si>
   <si>
-    <t>Releasing in June + slightly buggy firmware + slightly higher contrast than regular IPS + might have to wait for restock</t>
-  </si>
-  <si>
     <t>LG 27GP850</t>
   </si>
   <si>
@@ -709,13 +688,16 @@
     <t>Gsync module + otherwise similar to 34gn850</t>
   </si>
   <si>
-    <t>Releasing soon (according to manufacturer) + reports of coil whine + might have to wait for restock</t>
-  </si>
-  <si>
     <t>Dell S2721QS</t>
   </si>
   <si>
     <t>AOC 24G2SPU</t>
+  </si>
+  <si>
+    <t>VRR+HDR flickering + Type-c hub with 90W charging + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>OSD lock ups sometimes + minor VRR+HDR flickering + Type-c hub with 90W charging + might have to wait for restock</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1202,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1282,7 +1264,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -1290,170 +1272,170 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="D4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>870</v>
+        <v>260</v>
       </c>
       <c r="C5">
-        <v>6.25</v>
+        <v>6.3</v>
       </c>
       <c r="D5">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
-        <v>30</v>
+      <c r="N5">
+        <v>5700</v>
       </c>
       <c r="O5" t="s">
         <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
         <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6">
+        <v>335</v>
+      </c>
+      <c r="C6">
+        <v>6.3</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="B6">
-        <v>270</v>
-      </c>
-      <c r="C6">
-        <v>7.5</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
       <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="N6">
+        <v>5700</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
@@ -1468,7 +1450,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="T6" t="s">
         <v>47</v>
@@ -1476,25 +1458,25 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="B7">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="C7">
         <v>6.3</v>
       </c>
       <c r="D7">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1509,7 +1491,7 @@
         <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
@@ -1530,24 +1512,24 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>335</v>
+        <v>480</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1565,16 +1547,16 @@
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>5700</v>
@@ -1589,54 +1571,54 @@
         <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S8" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B9">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="C9">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D9">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
         <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>5700</v>
@@ -1654,24 +1636,24 @@
         <v>26</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>480</v>
       </c>
       <c r="C10">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1689,57 +1671,57 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10">
-        <v>5700</v>
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
       </c>
       <c r="O10" t="s">
         <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="B11">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="C11">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D11">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1748,19 +1730,19 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>5700</v>
@@ -1778,24 +1760,24 @@
         <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="B12">
-        <v>480</v>
+        <v>1100</v>
       </c>
       <c r="C12">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1813,34 +1795,34 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="N12">
+        <v>5700</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
         <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S12" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="T12" t="s">
         <v>63</v>
@@ -1848,22 +1830,22 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B13">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="C13">
-        <v>6.6</v>
+        <v>6.25</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1875,22 +1857,22 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>5700</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
         <v>24</v>
@@ -1899,54 +1881,54 @@
         <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="C14">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="D14">
+        <v>5.5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>6.5</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
       <c r="I14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>5700</v>
@@ -1961,36 +1943,36 @@
         <v>24</v>
       </c>
       <c r="R14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="T14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="B15">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="C15">
-        <v>6.25</v>
+        <v>7.9</v>
       </c>
       <c r="D15">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -1999,22 +1981,22 @@
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>5700</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
         <v>24</v>
@@ -2023,89 +2005,89 @@
         <v>24</v>
       </c>
       <c r="R15" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="C16">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="D16">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>5700</v>
       </c>
       <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" t="s">
         <v>25</v>
       </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
       <c r="Q16" t="s">
         <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="S16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="T16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="C17">
-        <v>7.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2126,10 +2108,10 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
         <v>23</v>
@@ -2150,33 +2132,33 @@
         <v>26</v>
       </c>
       <c r="S17" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18">
-        <v>1100</v>
+        <v>270</v>
       </c>
       <c r="C18">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="D18">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2188,10 +2170,10 @@
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
         <v>23</v>
@@ -2200,10 +2182,10 @@
         <v>5700</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="s">
         <v>24</v>
@@ -2212,57 +2194,57 @@
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B19">
-        <v>1400</v>
+        <v>360</v>
       </c>
       <c r="C19">
-        <v>8.3000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="D19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>5</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
       </c>
       <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
         <v>77</v>
       </c>
-      <c r="L19" t="s">
-        <v>43</v>
-      </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>5700</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
         <v>24</v>
@@ -2274,24 +2256,24 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="C20">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -2303,22 +2285,22 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>5700</v>
@@ -2336,54 +2318,54 @@
         <v>26</v>
       </c>
       <c r="S20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B21">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="C21">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
+        <v>3.5</v>
+      </c>
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
       <c r="G21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21">
-        <v>5700</v>
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
+        <v>85</v>
       </c>
       <c r="O21" t="s">
         <v>25</v>
@@ -2395,122 +2377,122 @@
         <v>24</v>
       </c>
       <c r="R21" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="T21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B22">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>5700</v>
       </c>
       <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
         <v>25</v>
       </c>
-      <c r="P22" t="s">
-        <v>24</v>
-      </c>
       <c r="Q22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R22" t="s">
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B23">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="C23">
         <v>5.8</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="N23" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P23" t="s">
         <v>24</v>
@@ -2519,83 +2501,83 @@
         <v>24</v>
       </c>
       <c r="R23" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B24">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="C24">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" t="s">
         <v>92</v>
       </c>
-      <c r="M24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24">
-        <v>5700</v>
+      <c r="N24" t="s">
+        <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B25">
-        <v>580</v>
+        <v>770</v>
       </c>
       <c r="C25">
         <v>5.8</v>
@@ -2622,13 +2604,13 @@
         <v>28</v>
       </c>
       <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
         <v>36</v>
-      </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" t="s">
-        <v>95</v>
       </c>
       <c r="N25" t="s">
         <v>30</v>
@@ -2646,27 +2628,27 @@
         <v>26</v>
       </c>
       <c r="S25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="C26">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2684,13 +2666,13 @@
         <v>28</v>
       </c>
       <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" t="s">
         <v>36</v>
-      </c>
-      <c r="L26" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" t="s">
-        <v>95</v>
       </c>
       <c r="N26" t="s">
         <v>30</v>
@@ -2708,33 +2690,33 @@
         <v>26</v>
       </c>
       <c r="S26" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="T26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B27">
-        <v>770</v>
+        <v>5200</v>
       </c>
       <c r="C27">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -2746,13 +2728,13 @@
         <v>28</v>
       </c>
       <c r="K27" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" t="s">
         <v>36</v>
-      </c>
-      <c r="L27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" t="s">
-        <v>37</v>
       </c>
       <c r="N27" t="s">
         <v>30</v>
@@ -2761,63 +2743,63 @@
         <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="T27" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B28">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="C28">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="O28" t="s">
         <v>24</v>
@@ -2826,57 +2808,57 @@
         <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
       </c>
       <c r="S28" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="T28" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B29">
-        <v>5200</v>
+        <v>950</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>8.75</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N29" t="s">
         <v>30</v>
@@ -2885,7 +2867,7 @@
         <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q29" t="s">
         <v>25</v>
@@ -2894,54 +2876,54 @@
         <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="T29" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B30">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="L30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="O30" t="s">
         <v>24</v>
@@ -2950,36 +2932,36 @@
         <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="T30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B31">
-        <v>950</v>
+        <v>1600</v>
       </c>
       <c r="C31">
         <v>7.5</v>
       </c>
       <c r="D31">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -2988,16 +2970,16 @@
         <v>5</v>
       </c>
       <c r="I31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M31" t="s">
         <v>23</v>
@@ -3006,7 +2988,7 @@
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P31" t="s">
         <v>24</v>
@@ -3015,36 +2997,36 @@
         <v>25</v>
       </c>
       <c r="R31" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="B32">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="C32">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="F32">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3053,78 +3035,78 @@
         <v>1.5</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N32" t="s">
         <v>30</v>
       </c>
       <c r="O32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S32" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="T32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B33">
-        <v>1600</v>
+        <v>1250</v>
       </c>
       <c r="C33">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>5</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="L33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M33" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N33" t="s">
         <v>30</v>
@@ -3133,66 +3115,66 @@
         <v>25</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q33" t="s">
         <v>25</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S33" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="T33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B34">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="C34">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="F34">
+        <v>3.5</v>
+      </c>
+      <c r="G34">
+        <v>3.5</v>
+      </c>
+      <c r="H34">
         <v>8</v>
       </c>
-      <c r="G34">
-        <v>9</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
       <c r="I34">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="L34" t="s">
         <v>120</v>
       </c>
       <c r="M34" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="O34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P34" t="s">
         <v>25</v>
@@ -3201,98 +3183,98 @@
         <v>24</v>
       </c>
       <c r="R34" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="T34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="B35">
-        <v>1250</v>
+        <v>3800</v>
       </c>
       <c r="C35">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="F35">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="G35">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I35">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
         <v>120</v>
       </c>
       <c r="M35" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="O35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P35" t="s">
         <v>25</v>
       </c>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="T35" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="B36">
-        <v>2500</v>
+        <v>580</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>8</v>
@@ -3304,16 +3286,16 @@
         <v>28</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L36" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O36" t="s">
         <v>24</v>
@@ -3328,33 +3310,33 @@
         <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B37">
-        <v>3800</v>
+        <v>1100</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>8</v>
@@ -3366,16 +3348,16 @@
         <v>28</v>
       </c>
       <c r="K37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L37" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O37" t="s">
         <v>24</v>
@@ -3390,24 +3372,24 @@
         <v>26</v>
       </c>
       <c r="S37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B38">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -3419,31 +3401,31 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="L38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="N38" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="O38" t="s">
         <v>24</v>
       </c>
       <c r="P38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="s">
         <v>24</v>
@@ -3452,27 +3434,27 @@
         <v>26</v>
       </c>
       <c r="S38" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="T38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B39">
-        <v>1100</v>
+        <v>680</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -3481,31 +3463,31 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="L39" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N39" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="O39" t="s">
         <v>24</v>
       </c>
       <c r="P39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q39" t="s">
         <v>24</v>
@@ -3514,24 +3496,24 @@
         <v>26</v>
       </c>
       <c r="S39" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="T39" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B40">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="C40">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -3543,25 +3525,25 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M40" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="N40" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
@@ -3576,27 +3558,27 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="T40" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="B41">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="C41">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -3605,25 +3587,25 @@
         <v>2</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L41" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="M41" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N41" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
@@ -3638,21 +3620,21 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="T41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B42">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3667,25 +3649,25 @@
         <v>2</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K42" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M42" t="s">
         <v>23</v>
       </c>
       <c r="N42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O42" t="s">
         <v>24</v>
@@ -3700,24 +3682,24 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="B43">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3729,43 +3711,43 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" t="s">
+        <v>52</v>
+      </c>
+      <c r="S43" t="s">
+        <v>141</v>
+      </c>
+      <c r="T43" t="s">
         <v>43</v>
-      </c>
-      <c r="M43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" t="s">
-        <v>61</v>
-      </c>
-      <c r="O43" t="s">
-        <v>24</v>
-      </c>
-      <c r="P43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>24</v>
-      </c>
-      <c r="R43" t="s">
-        <v>26</v>
-      </c>
-      <c r="S43" t="s">
-        <v>140</v>
-      </c>
-      <c r="T43" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -3773,13 +3755,13 @@
         <v>143</v>
       </c>
       <c r="B44">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3800,16 +3782,16 @@
         <v>28</v>
       </c>
       <c r="K44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M44" t="s">
         <v>23</v>
       </c>
       <c r="N44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O44" t="s">
         <v>24</v>
@@ -3827,15 +3809,15 @@
         <v>144</v>
       </c>
       <c r="T44" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B45">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3853,51 +3835,51 @@
         <v>2</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" t="s">
+        <v>26</v>
+      </c>
+      <c r="S45" t="s">
         <v>43</v>
       </c>
-      <c r="M45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N45" t="s">
-        <v>61</v>
-      </c>
-      <c r="O45" t="s">
-        <v>25</v>
-      </c>
-      <c r="P45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45" t="s">
-        <v>55</v>
-      </c>
-      <c r="S45" t="s">
-        <v>144</v>
-      </c>
       <c r="T45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B46">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3921,45 +3903,45 @@
         <v>8</v>
       </c>
       <c r="J46" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L46" t="s">
+        <v>40</v>
+      </c>
+      <c r="M46" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" t="s">
+        <v>58</v>
+      </c>
+      <c r="O46" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" t="s">
+        <v>150</v>
+      </c>
+      <c r="S46" t="s">
+        <v>151</v>
+      </c>
+      <c r="T46" t="s">
         <v>43</v>
-      </c>
-      <c r="M46" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" t="s">
-        <v>61</v>
-      </c>
-      <c r="O46" t="s">
-        <v>24</v>
-      </c>
-      <c r="P46" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>24</v>
-      </c>
-      <c r="R46" t="s">
-        <v>26</v>
-      </c>
-      <c r="S46" t="s">
-        <v>147</v>
-      </c>
-      <c r="T46" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B47">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3968,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -3986,16 +3968,16 @@
         <v>28</v>
       </c>
       <c r="K47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L47" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="M47" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O47" t="s">
         <v>24</v>
@@ -4010,18 +3992,18 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="T47" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B48">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4045,45 +4027,45 @@
         <v>8</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="K48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L48" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" t="s">
+        <v>36</v>
+      </c>
+      <c r="N48" t="s">
+        <v>58</v>
+      </c>
+      <c r="O48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S48" t="s">
+        <v>157</v>
+      </c>
+      <c r="T48" t="s">
         <v>43</v>
-      </c>
-      <c r="M48" t="s">
-        <v>95</v>
-      </c>
-      <c r="N48" t="s">
-        <v>61</v>
-      </c>
-      <c r="O48" t="s">
-        <v>24</v>
-      </c>
-      <c r="P48" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>24</v>
-      </c>
-      <c r="R48" t="s">
-        <v>153</v>
-      </c>
-      <c r="S48" t="s">
-        <v>154</v>
-      </c>
-      <c r="T48" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B49">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4110,16 +4092,16 @@
         <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L49" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M49" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O49" t="s">
         <v>24</v>
@@ -4134,18 +4116,18 @@
         <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B50">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4154,69 +4136,69 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J50" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="K50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" t="s">
+        <v>58</v>
+      </c>
+      <c r="O50" t="s">
+        <v>24</v>
+      </c>
+      <c r="P50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" t="s">
+        <v>26</v>
+      </c>
+      <c r="S50" t="s">
+        <v>163</v>
+      </c>
+      <c r="T50" t="s">
         <v>43</v>
-      </c>
-      <c r="M50" t="s">
-        <v>37</v>
-      </c>
-      <c r="N50" t="s">
-        <v>61</v>
-      </c>
-      <c r="O50" t="s">
-        <v>24</v>
-      </c>
-      <c r="P50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>24</v>
-      </c>
-      <c r="R50" t="s">
-        <v>26</v>
-      </c>
-      <c r="S50" t="s">
-        <v>160</v>
-      </c>
-      <c r="T50" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B51">
-        <v>860</v>
+        <v>1400</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -4225,28 +4207,28 @@
         <v>2</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K51" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="L51" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="M51" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P51" t="s">
         <v>24</v>
@@ -4255,21 +4237,21 @@
         <v>24</v>
       </c>
       <c r="R51" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S51" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="T51" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B52">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4278,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H52">
         <v>9</v>
@@ -4293,19 +4275,19 @@
         <v>10</v>
       </c>
       <c r="J52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M52" t="s">
         <v>23</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O52" t="s">
         <v>24</v>
@@ -4323,175 +4305,175 @@
         <v>166</v>
       </c>
       <c r="T52" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B53">
-        <v>1400</v>
+        <v>440</v>
       </c>
       <c r="C53">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M53" t="s">
         <v>36</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53">
+        <v>5700</v>
+      </c>
+      <c r="O53" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>24</v>
+      </c>
+      <c r="R53" t="s">
+        <v>26</v>
+      </c>
+      <c r="S53" t="s">
         <v>43</v>
       </c>
-      <c r="M53" t="s">
-        <v>69</v>
-      </c>
-      <c r="N53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O53" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>24</v>
-      </c>
-      <c r="R53" t="s">
-        <v>55</v>
-      </c>
-      <c r="S53" t="s">
-        <v>149</v>
-      </c>
       <c r="T53" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B54">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G54">
         <v>5</v>
       </c>
       <c r="H54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I54">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J54" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="K54" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="L54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N54">
+        <v>5700</v>
+      </c>
+      <c r="O54" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54" t="s">
+        <v>26</v>
+      </c>
+      <c r="S54" t="s">
         <v>43</v>
       </c>
-      <c r="M54" t="s">
-        <v>23</v>
-      </c>
-      <c r="N54" t="s">
-        <v>61</v>
-      </c>
-      <c r="O54" t="s">
-        <v>24</v>
-      </c>
-      <c r="P54" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>24</v>
-      </c>
-      <c r="R54" t="s">
-        <v>26</v>
-      </c>
-      <c r="S54" t="s">
-        <v>169</v>
-      </c>
       <c r="T54" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55">
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="C55">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D55">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
         <v>3</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
-        <v>5</v>
       </c>
       <c r="I55">
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M55" t="s">
-        <v>37</v>
-      </c>
-      <c r="N55">
-        <v>5700</v>
+        <v>130</v>
+      </c>
+      <c r="N55" t="s">
+        <v>42</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
@@ -4506,7 +4488,7 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="T55" t="s">
         <v>182</v>
@@ -4517,72 +4499,72 @@
         <v>183</v>
       </c>
       <c r="B56">
-        <v>1050</v>
+        <v>150</v>
       </c>
       <c r="C56">
-        <v>6.25</v>
+        <v>6.3</v>
       </c>
       <c r="D56">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K56" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L56" t="s">
+        <v>40</v>
+      </c>
+      <c r="M56" t="s">
+        <v>130</v>
+      </c>
+      <c r="N56" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>24</v>
+      </c>
+      <c r="R56" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56" t="s">
         <v>43</v>
       </c>
-      <c r="M56" t="s">
-        <v>37</v>
-      </c>
-      <c r="N56">
-        <v>5700</v>
-      </c>
-      <c r="O56" t="s">
-        <v>24</v>
-      </c>
-      <c r="P56" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>24</v>
-      </c>
-      <c r="R56" t="s">
-        <v>26</v>
-      </c>
-      <c r="S56" t="s">
-        <v>46</v>
-      </c>
       <c r="T56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="B57">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C57">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -4603,45 +4585,45 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" t="s">
+        <v>130</v>
+      </c>
+      <c r="N57" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" t="s">
+        <v>24</v>
+      </c>
+      <c r="P57" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" t="s">
         <v>43</v>
       </c>
-      <c r="M57" t="s">
-        <v>133</v>
-      </c>
-      <c r="N57" t="s">
-        <v>45</v>
-      </c>
-      <c r="O57" t="s">
-        <v>24</v>
-      </c>
-      <c r="P57" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>24</v>
-      </c>
-      <c r="R57" t="s">
-        <v>26</v>
-      </c>
-      <c r="S57" t="s">
-        <v>186</v>
-      </c>
       <c r="T57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B58">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C58">
         <v>6.3</v>
@@ -4665,51 +4647,51 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K58" t="s">
         <v>21</v>
       </c>
       <c r="L58" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" t="s">
+        <v>130</v>
+      </c>
+      <c r="N58" t="s">
+        <v>42</v>
+      </c>
+      <c r="O58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" t="s">
+        <v>26</v>
+      </c>
+      <c r="S58" t="s">
         <v>43</v>
       </c>
-      <c r="M58" t="s">
-        <v>133</v>
-      </c>
-      <c r="N58" t="s">
-        <v>45</v>
-      </c>
-      <c r="O58" t="s">
-        <v>24</v>
-      </c>
-      <c r="P58" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>24</v>
-      </c>
-      <c r="R58" t="s">
-        <v>26</v>
-      </c>
-      <c r="S58" t="s">
-        <v>46</v>
-      </c>
       <c r="T58" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B59">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="C59">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -4721,28 +4703,28 @@
         <v>2</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="L59" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="M59" t="s">
-        <v>133</v>
-      </c>
-      <c r="N59" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="N59">
+        <v>5700</v>
       </c>
       <c r="O59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P59" t="s">
         <v>24</v>
@@ -4751,27 +4733,27 @@
         <v>24</v>
       </c>
       <c r="R59" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S59" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="T59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B60">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C60">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -4783,28 +4765,28 @@
         <v>2</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="L60" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="M60" t="s">
-        <v>133</v>
-      </c>
-      <c r="N60" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="N60">
+        <v>5700</v>
       </c>
       <c r="O60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P60" t="s">
         <v>24</v>
@@ -4816,27 +4798,27 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="T60" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B61">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="C61">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -4845,28 +4827,28 @@
         <v>2</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="K61" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L61" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M61" t="s">
-        <v>54</v>
-      </c>
-      <c r="N61">
-        <v>5700</v>
+        <v>41</v>
+      </c>
+      <c r="N61" t="s">
+        <v>42</v>
       </c>
       <c r="O61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P61" t="s">
         <v>24</v>
@@ -4875,33 +4857,33 @@
         <v>24</v>
       </c>
       <c r="R61" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="S61" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="T61" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B62">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="C62">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -4916,19 +4898,19 @@
         <v>20</v>
       </c>
       <c r="K62" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L62" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M62" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N62">
         <v>5700</v>
       </c>
       <c r="O62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P62" t="s">
         <v>24</v>
@@ -4940,54 +4922,54 @@
         <v>26</v>
       </c>
       <c r="S62" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="T62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="C63">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D63">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
       <c r="G63">
         <v>2</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="L63" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M63" t="s">
-        <v>44</v>
-      </c>
-      <c r="N63" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="N63">
+        <v>5700</v>
       </c>
       <c r="O63" t="s">
         <v>24</v>
@@ -5002,7 +4984,7 @@
         <v>26</v>
       </c>
       <c r="S63" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="T63" t="s">
         <v>197</v>
@@ -5013,10 +4995,10 @@
         <v>198</v>
       </c>
       <c r="B64">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="C64">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -5040,13 +5022,13 @@
         <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N64">
         <v>5700</v>
@@ -5064,54 +5046,54 @@
         <v>26</v>
       </c>
       <c r="S64" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="T64" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65">
+        <v>900</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>9.5</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>3.5</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>1.5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" t="s">
+        <v>102</v>
+      </c>
+      <c r="L65" t="s">
+        <v>110</v>
+      </c>
+      <c r="M65" t="s">
         <v>201</v>
       </c>
-      <c r="B65">
-        <v>1000</v>
-      </c>
-      <c r="C65">
-        <v>7.8</v>
-      </c>
-      <c r="D65">
-        <v>6</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>5</v>
-      </c>
-      <c r="I65">
-        <v>3</v>
-      </c>
-      <c r="J65" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" t="s">
-        <v>200</v>
-      </c>
-      <c r="L65" t="s">
-        <v>43</v>
-      </c>
-      <c r="M65" t="s">
-        <v>37</v>
-      </c>
-      <c r="N65">
-        <v>5700</v>
+      <c r="N65" t="s">
+        <v>30</v>
       </c>
       <c r="O65" t="s">
         <v>24</v>
@@ -5120,60 +5102,60 @@
         <v>24</v>
       </c>
       <c r="Q65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
       </c>
       <c r="S65" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="T65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66">
+        <v>1000</v>
+      </c>
+      <c r="C66">
+        <v>5.8</v>
+      </c>
+      <c r="D66">
+        <v>6.2</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>6.1</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" t="s">
         <v>204</v>
       </c>
-      <c r="B66">
-        <v>850</v>
-      </c>
-      <c r="C66">
-        <v>7.8</v>
-      </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>3</v>
-      </c>
-      <c r="J66" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" t="s">
-        <v>200</v>
-      </c>
-      <c r="L66" t="s">
-        <v>43</v>
-      </c>
       <c r="M66" t="s">
-        <v>37</v>
-      </c>
-      <c r="N66">
-        <v>5700</v>
+        <v>23</v>
+      </c>
+      <c r="N66" t="s">
+        <v>30</v>
       </c>
       <c r="O66" t="s">
         <v>24</v>
@@ -5191,51 +5173,51 @@
         <v>205</v>
       </c>
       <c r="T66" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B67">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="D67">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G67">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="J67" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K67" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="L67" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="M67" t="s">
-        <v>207</v>
-      </c>
-      <c r="N67" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="N67">
+        <v>5700</v>
       </c>
       <c r="O67" t="s">
         <v>24</v>
@@ -5244,144 +5226,20 @@
         <v>24</v>
       </c>
       <c r="Q67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
       </c>
       <c r="S67" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B68">
-        <v>1000</v>
-      </c>
-      <c r="C68">
-        <v>5.8</v>
-      </c>
-      <c r="D68">
-        <v>6.2</v>
-      </c>
-      <c r="E68">
-        <v>4</v>
-      </c>
-      <c r="F68">
-        <v>6.1</v>
-      </c>
-      <c r="G68">
-        <v>4</v>
-      </c>
-      <c r="H68">
-        <v>8</v>
-      </c>
-      <c r="I68">
-        <v>8</v>
-      </c>
-      <c r="J68" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" t="s">
-        <v>36</v>
-      </c>
-      <c r="L68" t="s">
-        <v>210</v>
-      </c>
-      <c r="M68" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" t="s">
-        <v>30</v>
-      </c>
-      <c r="O68" t="s">
-        <v>24</v>
-      </c>
-      <c r="P68" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>24</v>
-      </c>
-      <c r="R68" t="s">
-        <v>26</v>
-      </c>
-      <c r="S68" t="s">
-        <v>211</v>
-      </c>
-      <c r="T68" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>215</v>
-      </c>
-      <c r="B69">
-        <v>450</v>
-      </c>
-      <c r="C69">
-        <v>6.4</v>
-      </c>
-      <c r="D69">
-        <v>6</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>2</v>
-      </c>
-      <c r="H69">
-        <v>5</v>
-      </c>
-      <c r="I69">
-        <v>5</v>
-      </c>
-      <c r="J69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" t="s">
-        <v>58</v>
-      </c>
-      <c r="L69" t="s">
-        <v>43</v>
-      </c>
-      <c r="M69" t="s">
-        <v>23</v>
-      </c>
-      <c r="N69">
-        <v>5700</v>
-      </c>
-      <c r="O69" t="s">
-        <v>24</v>
-      </c>
-      <c r="P69" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>24</v>
-      </c>
-      <c r="R69" t="s">
-        <v>26</v>
-      </c>
-      <c r="S69" t="s">
-        <v>216</v>
-      </c>
-      <c r="T69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F72" s="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/monitorsEU.xlsx
+++ b/data/monitorsEU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4C1A8-8A4A-2D43-A93E-D9E9640F9685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334486A0-7932-A147-88AE-78C9A9F93B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="227">
   <si>
     <t>name</t>
   </si>
@@ -247,9 +247,6 @@
     <t>360hz</t>
   </si>
   <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn;Hardware Unboxed,https://www.youtube.com/watch?v=eYFtLBM3a78</t>
-  </si>
-  <si>
     <t>Dell S2722DGM</t>
   </si>
   <si>
@@ -698,6 +695,12 @@
   </si>
   <si>
     <t>OSD lock ups sometimes + minor VRR+HDR flickering + Type-c hub with 90W charging + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>Gsync module + ULMB2</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn;Hardware Unboxed,https://www.youtube.com/watch?v=eYFtLBM3a78;Optimum Tech,https://www.youtube.com/watch?v=3Cykx2GQq4k</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1264,7 +1267,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -1396,7 +1399,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6">
         <v>335</v>
@@ -1450,7 +1453,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T6" t="s">
         <v>47</v>
@@ -1458,7 +1461,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7">
         <v>420</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11">
         <v>330</v>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12">
         <v>1100</v>
@@ -1798,7 +1801,7 @@
         <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
         <v>40</v>
@@ -1822,7 +1825,7 @@
         <v>52</v>
       </c>
       <c r="S12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T12" t="s">
         <v>63</v>
@@ -1830,7 +1833,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13">
         <v>680</v>
@@ -1946,7 +1949,7 @@
         <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T14" t="s">
         <v>67</v>
@@ -2070,7 +2073,7 @@
         <v>26</v>
       </c>
       <c r="S16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T16" t="s">
         <v>72</v>
@@ -2084,7 +2087,7 @@
         <v>1400</v>
       </c>
       <c r="C17">
-        <v>8.3000000000000007</v>
+        <v>9.75</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -2132,15 +2135,15 @@
         <v>26</v>
       </c>
       <c r="S17" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>270</v>
@@ -2173,7 +2176,7 @@
         <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s">
         <v>23</v>
@@ -2197,12 +2200,12 @@
         <v>43</v>
       </c>
       <c r="T18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <v>360</v>
@@ -2235,7 +2238,7 @@
         <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
         <v>36</v>
@@ -2259,12 +2262,12 @@
         <v>43</v>
       </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>420</v>
@@ -2294,10 +2297,10 @@
         <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" t="s">
         <v>36</v>
@@ -2321,12 +2324,12 @@
         <v>43</v>
       </c>
       <c r="T20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>460</v>
@@ -2359,13 +2362,13 @@
         <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O21" t="s">
         <v>25</v>
@@ -2380,15 +2383,15 @@
         <v>52</v>
       </c>
       <c r="S21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21" t="s">
         <v>86</v>
-      </c>
-      <c r="T21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <v>500</v>
@@ -2421,7 +2424,7 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
         <v>23</v>
@@ -2442,15 +2445,15 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23">
         <v>580</v>
@@ -2486,7 +2489,7 @@
         <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
         <v>30</v>
@@ -2504,15 +2507,15 @@
         <v>26</v>
       </c>
       <c r="S23" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" t="s">
         <v>93</v>
-      </c>
-      <c r="T23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>680</v>
@@ -2548,7 +2551,7 @@
         <v>40</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
         <v>30</v>
@@ -2569,12 +2572,12 @@
         <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>770</v>
@@ -2628,15 +2631,15 @@
         <v>26</v>
       </c>
       <c r="S25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26">
         <v>700</v>
@@ -2669,7 +2672,7 @@
         <v>29</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M26" t="s">
         <v>36</v>
@@ -2690,15 +2693,15 @@
         <v>26</v>
       </c>
       <c r="S26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27">
         <v>5200</v>
@@ -2728,7 +2731,7 @@
         <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s">
         <v>34</v>
@@ -2752,7 +2755,7 @@
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T27" t="s">
         <v>43</v>
@@ -2760,7 +2763,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28">
         <v>5000</v>
@@ -2787,13 +2790,13 @@
         <v>10</v>
       </c>
       <c r="J28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" t="s">
         <v>105</v>
-      </c>
-      <c r="K28" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" t="s">
-        <v>106</v>
       </c>
       <c r="M28" t="s">
         <v>36</v>
@@ -2814,15 +2817,15 @@
         <v>26</v>
       </c>
       <c r="S28" t="s">
+        <v>106</v>
+      </c>
+      <c r="T28" t="s">
         <v>107</v>
-      </c>
-      <c r="T28" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29">
         <v>950</v>
@@ -2855,7 +2858,7 @@
         <v>39</v>
       </c>
       <c r="L29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M29" t="s">
         <v>23</v>
@@ -2876,15 +2879,15 @@
         <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30">
         <v>1300</v>
@@ -2917,7 +2920,7 @@
         <v>39</v>
       </c>
       <c r="L30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M30" t="s">
         <v>23</v>
@@ -2938,15 +2941,15 @@
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31">
         <v>1600</v>
@@ -2979,7 +2982,7 @@
         <v>39</v>
       </c>
       <c r="L31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M31" t="s">
         <v>23</v>
@@ -3000,15 +3003,15 @@
         <v>52</v>
       </c>
       <c r="S31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32">
         <v>1100</v>
@@ -3038,10 +3041,10 @@
         <v>50</v>
       </c>
       <c r="K32" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" t="s">
         <v>116</v>
-      </c>
-      <c r="L32" t="s">
-        <v>117</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
@@ -3062,15 +3065,15 @@
         <v>52</v>
       </c>
       <c r="S32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33">
         <v>1250</v>
@@ -3100,10 +3103,10 @@
         <v>50</v>
       </c>
       <c r="K33" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" t="s">
         <v>116</v>
-      </c>
-      <c r="L33" t="s">
-        <v>117</v>
       </c>
       <c r="M33" t="s">
         <v>51</v>
@@ -3124,15 +3127,15 @@
         <v>52</v>
       </c>
       <c r="S33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34">
         <v>2500</v>
@@ -3162,10 +3165,10 @@
         <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M34" t="s">
         <v>36</v>
@@ -3186,15 +3189,15 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
+        <v>120</v>
+      </c>
+      <c r="T34" t="s">
         <v>121</v>
-      </c>
-      <c r="T34" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35">
         <v>3800</v>
@@ -3224,10 +3227,10 @@
         <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M35" t="s">
         <v>36</v>
@@ -3248,7 +3251,7 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T35" t="s">
         <v>43</v>
@@ -3256,7 +3259,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36">
         <v>580</v>
@@ -3286,7 +3289,7 @@
         <v>28</v>
       </c>
       <c r="K36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L36" t="s">
         <v>40</v>
@@ -3310,15 +3313,15 @@
         <v>26</v>
       </c>
       <c r="S36" t="s">
+        <v>124</v>
+      </c>
+      <c r="T36" t="s">
         <v>125</v>
-      </c>
-      <c r="T36" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37">
         <v>1100</v>
@@ -3348,7 +3351,7 @@
         <v>28</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L37" t="s">
         <v>40</v>
@@ -3372,7 +3375,7 @@
         <v>26</v>
       </c>
       <c r="S37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T37" t="s">
         <v>43</v>
@@ -3380,7 +3383,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38">
         <v>380</v>
@@ -3416,7 +3419,7 @@
         <v>40</v>
       </c>
       <c r="M38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N38" t="s">
         <v>42</v>
@@ -3434,15 +3437,15 @@
         <v>26</v>
       </c>
       <c r="S38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39">
         <v>680</v>
@@ -3475,7 +3478,7 @@
         <v>74</v>
       </c>
       <c r="L39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M39" t="s">
         <v>41</v>
@@ -3496,15 +3499,15 @@
         <v>26</v>
       </c>
       <c r="S39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40">
         <v>270</v>
@@ -3534,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s">
         <v>40</v>
@@ -3558,15 +3561,15 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
+        <v>136</v>
+      </c>
+      <c r="T40" t="s">
         <v>137</v>
-      </c>
-      <c r="T40" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41">
         <v>350</v>
@@ -3596,7 +3599,7 @@
         <v>28</v>
       </c>
       <c r="K41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L41" t="s">
         <v>40</v>
@@ -3620,15 +3623,15 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42">
         <v>400</v>
@@ -3658,7 +3661,7 @@
         <v>28</v>
       </c>
       <c r="K42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L42" t="s">
         <v>40</v>
@@ -3682,15 +3685,15 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43">
         <v>400</v>
@@ -3720,7 +3723,7 @@
         <v>50</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L43" t="s">
         <v>40</v>
@@ -3744,7 +3747,7 @@
         <v>52</v>
       </c>
       <c r="S43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T43" t="s">
         <v>43</v>
@@ -3752,7 +3755,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44">
         <v>500</v>
@@ -3782,7 +3785,7 @@
         <v>28</v>
       </c>
       <c r="K44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L44" t="s">
         <v>40</v>
@@ -3806,15 +3809,15 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
+        <v>143</v>
+      </c>
+      <c r="T44" t="s">
         <v>144</v>
-      </c>
-      <c r="T44" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45">
         <v>390</v>
@@ -3844,7 +3847,7 @@
         <v>28</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L45" t="s">
         <v>40</v>
@@ -3876,7 +3879,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46">
         <v>580</v>
@@ -3903,16 +3906,16 @@
         <v>8</v>
       </c>
       <c r="J46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s">
         <v>40</v>
       </c>
       <c r="M46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" t="s">
         <v>58</v>
@@ -3927,10 +3930,10 @@
         <v>24</v>
       </c>
       <c r="R46" t="s">
+        <v>149</v>
+      </c>
+      <c r="S46" t="s">
         <v>150</v>
-      </c>
-      <c r="S46" t="s">
-        <v>151</v>
       </c>
       <c r="T46" t="s">
         <v>43</v>
@@ -3938,7 +3941,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47">
         <v>600</v>
@@ -3968,10 +3971,10 @@
         <v>28</v>
       </c>
       <c r="K47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M47" t="s">
         <v>23</v>
@@ -3992,15 +3995,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
+        <v>153</v>
+      </c>
+      <c r="T47" t="s">
         <v>154</v>
-      </c>
-      <c r="T47" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48">
         <v>800</v>
@@ -4030,7 +4033,7 @@
         <v>28</v>
       </c>
       <c r="K48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L48" t="s">
         <v>40</v>
@@ -4054,7 +4057,7 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T48" t="s">
         <v>43</v>
@@ -4062,7 +4065,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49">
         <v>860</v>
@@ -4092,10 +4095,10 @@
         <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M49" t="s">
         <v>36</v>
@@ -4116,15 +4119,15 @@
         <v>26</v>
       </c>
       <c r="S49" t="s">
+        <v>158</v>
+      </c>
+      <c r="T49" t="s">
         <v>159</v>
-      </c>
-      <c r="T49" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50">
         <v>1000</v>
@@ -4151,10 +4154,10 @@
         <v>10</v>
       </c>
       <c r="J50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L50" t="s">
         <v>40</v>
@@ -4178,7 +4181,7 @@
         <v>26</v>
       </c>
       <c r="S50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T50" t="s">
         <v>43</v>
@@ -4186,7 +4189,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51">
         <v>1400</v>
@@ -4240,7 +4243,7 @@
         <v>52</v>
       </c>
       <c r="S51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T51" t="s">
         <v>43</v>
@@ -4248,7 +4251,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52">
         <v>1550</v>
@@ -4275,10 +4278,10 @@
         <v>10</v>
       </c>
       <c r="J52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L52" t="s">
         <v>40</v>
@@ -4302,15 +4305,15 @@
         <v>26</v>
       </c>
       <c r="S52" t="s">
+        <v>165</v>
+      </c>
+      <c r="T52" t="s">
         <v>166</v>
-      </c>
-      <c r="T52" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53">
         <v>440</v>
@@ -4367,12 +4370,12 @@
         <v>43</v>
       </c>
       <c r="T53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54">
         <v>1050</v>
@@ -4429,12 +4432,12 @@
         <v>43</v>
       </c>
       <c r="T54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B55">
         <v>180</v>
@@ -4470,7 +4473,7 @@
         <v>40</v>
       </c>
       <c r="M55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N55" t="s">
         <v>42</v>
@@ -4488,15 +4491,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
+        <v>180</v>
+      </c>
+      <c r="T55" t="s">
         <v>181</v>
-      </c>
-      <c r="T55" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B56">
         <v>150</v>
@@ -4532,7 +4535,7 @@
         <v>40</v>
       </c>
       <c r="M56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N56" t="s">
         <v>42</v>
@@ -4553,12 +4556,12 @@
         <v>43</v>
       </c>
       <c r="T56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57">
         <v>170</v>
@@ -4594,7 +4597,7 @@
         <v>40</v>
       </c>
       <c r="M57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N57" t="s">
         <v>42</v>
@@ -4615,12 +4618,12 @@
         <v>43</v>
       </c>
       <c r="T57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58">
         <v>200</v>
@@ -4656,7 +4659,7 @@
         <v>40</v>
       </c>
       <c r="M58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N58" t="s">
         <v>42</v>
@@ -4682,7 +4685,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59">
         <v>380</v>
@@ -4715,7 +4718,7 @@
         <v>55</v>
       </c>
       <c r="L59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M59" t="s">
         <v>51</v>
@@ -4736,15 +4739,15 @@
         <v>52</v>
       </c>
       <c r="S59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60">
         <v>300</v>
@@ -4777,7 +4780,7 @@
         <v>55</v>
       </c>
       <c r="L60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M60" t="s">
         <v>51</v>
@@ -4798,15 +4801,15 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B61">
         <v>180</v>
@@ -4839,7 +4842,7 @@
         <v>39</v>
       </c>
       <c r="L61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M61" t="s">
         <v>41</v>
@@ -4860,15 +4863,15 @@
         <v>26</v>
       </c>
       <c r="S61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B62">
         <v>700</v>
@@ -4898,7 +4901,7 @@
         <v>20</v>
       </c>
       <c r="K62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L62" t="s">
         <v>40</v>
@@ -4925,12 +4928,12 @@
         <v>43</v>
       </c>
       <c r="T62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B63">
         <v>1000</v>
@@ -4960,7 +4963,7 @@
         <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L63" t="s">
         <v>40</v>
@@ -4987,12 +4990,12 @@
         <v>43</v>
       </c>
       <c r="T63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B64">
         <v>850</v>
@@ -5022,7 +5025,7 @@
         <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L64" t="s">
         <v>40</v>
@@ -5046,7 +5049,7 @@
         <v>26</v>
       </c>
       <c r="S64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T64" t="s">
         <v>43</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65">
         <v>900</v>
@@ -5084,13 +5087,13 @@
         <v>28</v>
       </c>
       <c r="K65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N65" t="s">
         <v>30</v>
@@ -5108,15 +5111,15 @@
         <v>26</v>
       </c>
       <c r="S65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B66">
         <v>1000</v>
@@ -5149,7 +5152,7 @@
         <v>35</v>
       </c>
       <c r="L66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M66" t="s">
         <v>23</v>
@@ -5170,15 +5173,15 @@
         <v>26</v>
       </c>
       <c r="S66" t="s">
+        <v>204</v>
+      </c>
+      <c r="T66" t="s">
         <v>205</v>
-      </c>
-      <c r="T66" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B67">
         <v>450</v>
@@ -5232,7 +5235,7 @@
         <v>26</v>
       </c>
       <c r="S67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T67" t="s">
         <v>47</v>

--- a/data/monitorsEU.xlsx
+++ b/data/monitorsEU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334486A0-7932-A147-88AE-78C9A9F93B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA90E0-204A-394A-AE4B-287CE61DA7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="226">
   <si>
     <t>name</t>
   </si>
@@ -532,6 +532,9 @@
     <t>Heavy matte coating + low ppi + burn in risk</t>
   </si>
   <si>
+    <t>3 year burn in warranty + glossy</t>
+  </si>
+  <si>
     <t>Great strobing (strobing might cause eye fatigue)</t>
   </si>
   <si>
@@ -544,9 +547,6 @@
     <t>Dell AW3423DW</t>
   </si>
   <si>
-    <t>Broken HDR + 3 year burn in warranty + glossy</t>
-  </si>
-  <si>
     <t>LG 32GP850</t>
   </si>
   <si>
@@ -641,9 +641,6 @@
   </si>
   <si>
     <t>Burn-in risk + glossy</t>
-  </si>
-  <si>
-    <t>Broken HDR + heavy matte coating + burn in risk</t>
   </si>
   <si>
     <t>MSI G274QPF-QD</t>
@@ -1076,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1202,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1267,7 +1264,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -1399,7 +1396,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6">
         <v>335</v>
@@ -1453,7 +1450,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T6" t="s">
         <v>47</v>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7">
         <v>420</v>
@@ -1709,7 +1706,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11">
         <v>330</v>
@@ -1771,7 +1768,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12">
         <v>1100</v>
@@ -1825,7 +1822,7 @@
         <v>52</v>
       </c>
       <c r="S12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T12" t="s">
         <v>63</v>
@@ -1833,7 +1830,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13">
         <v>680</v>
@@ -1949,7 +1946,7 @@
         <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T14" t="s">
         <v>67</v>
@@ -2073,7 +2070,7 @@
         <v>26</v>
       </c>
       <c r="S16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T16" t="s">
         <v>72</v>
@@ -2135,10 +2132,10 @@
         <v>26</v>
       </c>
       <c r="S17" t="s">
+        <v>224</v>
+      </c>
+      <c r="T17" t="s">
         <v>225</v>
-      </c>
-      <c r="T17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -2935,13 +2932,13 @@
         <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="T30" t="s">
         <v>112</v>
@@ -3011,7 +3008,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B32">
         <v>1100</v>
@@ -3059,13 +3056,13 @@
         <v>25</v>
       </c>
       <c r="Q32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R32" t="s">
         <v>52</v>
       </c>
       <c r="S32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T32" t="s">
         <v>117</v>
@@ -3073,7 +3070,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B33">
         <v>1250</v>
@@ -3127,7 +3124,7 @@
         <v>52</v>
       </c>
       <c r="S33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T33" t="s">
         <v>118</v>
@@ -3437,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="S38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T38" t="s">
         <v>130</v>
@@ -3499,7 +3496,7 @@
         <v>26</v>
       </c>
       <c r="S39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T39" t="s">
         <v>133</v>
@@ -3569,7 +3566,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41">
         <v>350</v>
@@ -4561,7 +4558,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B57">
         <v>170</v>
@@ -4739,7 +4736,7 @@
         <v>52</v>
       </c>
       <c r="S59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T59" t="s">
         <v>186</v>
@@ -4801,7 +4798,7 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T60" t="s">
         <v>188</v>
@@ -4863,7 +4860,7 @@
         <v>26</v>
       </c>
       <c r="S61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T61" t="s">
         <v>190</v>
@@ -5181,7 +5178,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B67">
         <v>450</v>
@@ -5235,7 +5232,7 @@
         <v>26</v>
       </c>
       <c r="S67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T67" t="s">
         <v>47</v>

--- a/data/monitorsEU.xlsx
+++ b/data/monitorsEU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA90E0-204A-394A-AE4B-287CE61DA7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F44FD7-B2B8-7748-A6E9-164043A1CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
